--- a/data/media/prime3/english/Words.xlsx
+++ b/data/media/prime3/english/Words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="674">
   <si>
     <t>Word</t>
   </si>
@@ -64,33 +64,18 @@
     <t>هم / هن</t>
   </si>
   <si>
-    <t>I'm  / I am</t>
-  </si>
-  <si>
     <t>أنا أكون</t>
   </si>
   <si>
-    <t>You're / You are</t>
-  </si>
-  <si>
     <t>أنت تكون / أنتم تكونون</t>
   </si>
   <si>
-    <t>He's / He is</t>
-  </si>
-  <si>
     <t>هو  يكون</t>
   </si>
   <si>
-    <t>She's / She is</t>
-  </si>
-  <si>
     <t>هي تكون</t>
   </si>
   <si>
-    <t>They're / They are</t>
-  </si>
-  <si>
     <t>هم يكونون / هن يكنن</t>
   </si>
   <si>
@@ -901,10 +886,1156 @@
     <t>front of</t>
   </si>
   <si>
-    <t>------------------------------</t>
-  </si>
-  <si>
-    <t>Paaaage 29</t>
+    <t>هذا   / هذه</t>
+  </si>
+  <si>
+    <t>ذلك / تلك</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
+    <t>You are</t>
+  </si>
+  <si>
+    <t>He is</t>
+  </si>
+  <si>
+    <t>She is</t>
+  </si>
+  <si>
+    <t>They are</t>
+  </si>
+  <si>
+    <t>I'm</t>
+  </si>
+  <si>
+    <t>You're</t>
+  </si>
+  <si>
+    <t>He's</t>
+  </si>
+  <si>
+    <t>She's</t>
+  </si>
+  <si>
+    <t>They're</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>feelings</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>capital letters</t>
+  </si>
+  <si>
+    <t>What's the matter?</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>Are you OK?</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>I feel sick</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>I have a headache</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>glass of water</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>I have a cold</t>
+  </si>
+  <si>
+    <t>I have a fever</t>
+  </si>
+  <si>
+    <t>I have a cough</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>I don't feel well</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>This is my heart</t>
+  </si>
+  <si>
+    <t>This is my skin. It protects my body</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>digest</t>
+  </si>
+  <si>
+    <t>This is my stomack. It digests food.</t>
+  </si>
+  <si>
+    <t>This is my bone. It help me move</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stay at home</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>go to the doctor</t>
+  </si>
+  <si>
+    <t>play with your friends</t>
+  </si>
+  <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>loud music</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>try to sleep</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ill</t>
+  </si>
+  <si>
+    <t>When we are ill, we go to the doctor</t>
+  </si>
+  <si>
+    <t>nurses</t>
+  </si>
+  <si>
+    <t>they are very kind</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>I feel happy</t>
+  </si>
+  <si>
+    <t>She speaks English</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>Don't touch your face</t>
+  </si>
+  <si>
+    <t>Cover your mouth and nose</t>
+  </si>
+  <si>
+    <t>eat healthy food</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>wash your hands with soap</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>smile and be happy</t>
+  </si>
+  <si>
+    <t>brushing</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>brushing teeth</t>
+  </si>
+  <si>
+    <t>washing hands</t>
+  </si>
+  <si>
+    <t>Do you like your job?</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>What do you do?</t>
+  </si>
+  <si>
+    <t>What's your name?</t>
+  </si>
+  <si>
+    <t>Where do you work?</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>I work in a hospital</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>beds</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>wake up</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>I can go home tomorrow</t>
+  </si>
+  <si>
+    <t>I'm happy</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>poster paper</t>
+  </si>
+  <si>
+    <t>colored pens</t>
+  </si>
+  <si>
+    <t>colored pencils</t>
+  </si>
+  <si>
+    <t>pens</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>pencils</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>pictures</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>ideas</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>The cat is on the bed</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>What are you drawing?</t>
+  </si>
+  <si>
+    <t>I'm drawing a cat</t>
+  </si>
+  <si>
+    <t>I love cats</t>
+  </si>
+  <si>
+    <t>cats</t>
+  </si>
+  <si>
+    <t>listen to</t>
+  </si>
+  <si>
+    <t>It's very good</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>I like draing</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>magnets</t>
+  </si>
+  <si>
+    <t>Do you like collecting magnets?</t>
+  </si>
+  <si>
+    <t>Yes, I do</t>
+  </si>
+  <si>
+    <t>playing sports</t>
+  </si>
+  <si>
+    <t>listening to music</t>
+  </si>
+  <si>
+    <t>collecting magnets</t>
+  </si>
+  <si>
+    <t>drawing pictures</t>
+  </si>
+  <si>
+    <t>taking photos</t>
+  </si>
+  <si>
+    <t>singing a song</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>light yellow</t>
+  </si>
+  <si>
+    <t>dark blue</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>light gray</t>
+  </si>
+  <si>
+    <t>برتقالي</t>
+  </si>
+  <si>
+    <t>light green</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>What time is it?</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>It's half past two</t>
+  </si>
+  <si>
+    <t>It's quarter past nine</t>
+  </si>
+  <si>
+    <t>It's quarter to five</t>
+  </si>
+  <si>
+    <t>It's two thirty</t>
+  </si>
+  <si>
+    <t>It's three fifteen</t>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>sixty</t>
+  </si>
+  <si>
+    <t>seventy</t>
+  </si>
+  <si>
+    <t>eighty</t>
+  </si>
+  <si>
+    <t>ninety</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>paper clip</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>attracts</t>
+  </si>
+  <si>
+    <t>the same poles repel</t>
+  </si>
+  <si>
+    <t>القطبان المتشابهان يتنافران (يتباعدان)</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>poles</t>
+  </si>
+  <si>
+    <t>push away</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>magnet</t>
+  </si>
+  <si>
+    <t>تجذب</t>
+  </si>
+  <si>
+    <t>A magnet has two poles</t>
+  </si>
+  <si>
+    <t>north pole</t>
+  </si>
+  <si>
+    <t>south pole</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>repel</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>egyptian</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>I go to school</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>I like my teacher</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>يساعد / مساعدة</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>we help our friends</t>
+  </si>
+  <si>
+    <t>special help</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>for you</t>
+  </si>
+  <si>
+    <t>I can get this book for you</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>sign language</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>I can't hear</t>
+  </si>
+  <si>
+    <t>wooden stick</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>arrange</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>Why are you sad?</t>
+  </si>
+  <si>
+    <t>What do you do in Saterdays?</t>
+  </si>
+  <si>
+    <t>Can I make you a sandwich?</t>
+  </si>
+  <si>
+    <t>Would you like some juice?</t>
+  </si>
+  <si>
+    <t>Yes, Please</t>
+  </si>
+  <si>
+    <t>I play tennis</t>
+  </si>
+  <si>
+    <t>He's drawing a picture</t>
+  </si>
+  <si>
+    <t>I like bananas and cake</t>
+  </si>
+  <si>
+    <t>thisrsty</t>
+  </si>
+  <si>
+    <t>She is thirsty</t>
+  </si>
+  <si>
+    <t>We are happy</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>The world around me</t>
+  </si>
+  <si>
+    <t>I love my home</t>
+  </si>
+  <si>
+    <t>my home</t>
+  </si>
+  <si>
+    <t>math book</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>Do you know?</t>
+  </si>
+  <si>
+    <t>Wher it is?</t>
+  </si>
+  <si>
+    <t>I can't find it.</t>
+  </si>
+  <si>
+    <t>I can help you</t>
+  </si>
+  <si>
+    <t>bookcase</t>
+  </si>
+  <si>
+    <t>It's here</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>armchair</t>
+  </si>
+  <si>
+    <t>there's</t>
+  </si>
+  <si>
+    <t>there're</t>
+  </si>
+  <si>
+    <t>يوجد (للجمع)</t>
+  </si>
+  <si>
+    <t>يوجد (للمفرد)</t>
+  </si>
+  <si>
+    <t>What's in the living room?</t>
+  </si>
+  <si>
+    <t>There's a lamp on the table</t>
+  </si>
+  <si>
+    <t>The armchair next to the cupboard</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>There's a bookcase behind the table</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>dad</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>feed the cat</t>
+  </si>
+  <si>
+    <t>cut the vegetables</t>
+  </si>
+  <si>
+    <t>sweep</t>
+  </si>
+  <si>
+    <t>sweep the floor</t>
+  </si>
+  <si>
+    <t>make my bed</t>
+  </si>
+  <si>
+    <t>set the table</t>
+  </si>
+  <si>
+    <t>How many</t>
+  </si>
+  <si>
+    <t>How many books are there?</t>
+  </si>
+  <si>
+    <t>adding</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>the same</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>beard</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Busy bee</t>
+  </si>
+  <si>
+    <t>She likes ice cream</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>everywhere</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>We use metal everywhere</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>bikes</t>
+  </si>
+  <si>
+    <t>nails</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>made of</t>
+  </si>
+  <si>
+    <t>bikes are made of metals</t>
+  </si>
+  <si>
+    <t>melt</t>
+  </si>
+  <si>
+    <t>iron ore</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>natural resources</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>sand is a natural resource</t>
+  </si>
+  <si>
+    <t>We can make glass from sand</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>We take the sand from the desert</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>rivers</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>farmers</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>the Nile</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>dice</t>
+  </si>
+  <si>
+    <t>Grandpa</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>Grandpa is seventy years old</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>______</t>
+  </si>
+  <si>
+    <t>Start with Unit 5 page 88</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F280"/>
+  <dimension ref="A1:F717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0">
+      <selection activeCell="C718" sqref="C718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,10 +2478,10 @@
         <v>-1</v>
       </c>
       <c r="C7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,10 +2489,10 @@
         <v>-1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,10 +2500,10 @@
         <v>-1</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,10 +2511,10 @@
         <v>-1</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,10 +2522,10 @@
         <v>-1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1402,10 +2533,10 @@
         <v>-1</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,10 +2544,10 @@
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,10 +2555,10 @@
         <v>-1</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,10 +2566,10 @@
         <v>-1</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,10 +2577,10 @@
         <v>-1</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1457,10 +2588,10 @@
         <v>-1</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1468,10 +2599,10 @@
         <v>-1</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,10 +2610,10 @@
         <v>-1</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,10 +2621,10 @@
         <v>-1</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,10 +2632,10 @@
         <v>-1</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1512,7 +2643,10 @@
         <v>-1</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,7 +2654,10 @@
         <v>-1</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,7 +2665,10 @@
         <v>-1</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,47 +2676,59 @@
         <v>-1</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1640,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,10 +2808,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,10 +2816,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,1201 +2832,5429 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
       <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>46</v>
+      </c>
+      <c r="D153" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>168</v>
+      </c>
+      <c r="D156" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2</v>
+      </c>
+      <c r="C297" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2</v>
+      </c>
+      <c r="C298" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="C299" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="C300" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="C301" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="C302" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="C303" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2</v>
+      </c>
+      <c r="C305" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="C306" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2</v>
+      </c>
+      <c r="C307" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2</v>
+      </c>
+      <c r="C308" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="C309" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2</v>
+      </c>
+      <c r="C310" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2</v>
+      </c>
+      <c r="C311" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2</v>
+      </c>
+      <c r="C312" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2</v>
+      </c>
+      <c r="C313" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2</v>
+      </c>
+      <c r="C314" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="C315" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="C316" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2</v>
+      </c>
+      <c r="C317" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="C318" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2</v>
+      </c>
+      <c r="C319" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="C320" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2</v>
+      </c>
+      <c r="C321" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2</v>
+      </c>
+      <c r="C322" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="C323" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="C324" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2</v>
+      </c>
+      <c r="C325" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="C326" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2</v>
+      </c>
+      <c r="C327" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2</v>
+      </c>
+      <c r="C328" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="C329" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2</v>
+      </c>
+      <c r="C330" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2</v>
+      </c>
+      <c r="C331" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2</v>
+      </c>
+      <c r="C332" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2</v>
+      </c>
+      <c r="C333" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2</v>
+      </c>
+      <c r="C334" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2</v>
+      </c>
+      <c r="C335" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2</v>
+      </c>
+      <c r="C336" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2</v>
+      </c>
+      <c r="C337" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2</v>
+      </c>
+      <c r="C338" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2</v>
+      </c>
+      <c r="C339" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2</v>
+      </c>
+      <c r="C340" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2</v>
+      </c>
+      <c r="C341" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2</v>
+      </c>
+      <c r="C342" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2</v>
+      </c>
+      <c r="C343" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2</v>
+      </c>
+      <c r="C344" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="C345" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2</v>
+      </c>
+      <c r="C346" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2</v>
+      </c>
+      <c r="C347" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2</v>
+      </c>
+      <c r="C348" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2</v>
+      </c>
+      <c r="C349" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2</v>
+      </c>
+      <c r="C350" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2</v>
+      </c>
+      <c r="C351" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2</v>
+      </c>
+      <c r="C352" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="C353" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2</v>
+      </c>
+      <c r="C354" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2</v>
+      </c>
+      <c r="C355" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2</v>
+      </c>
+      <c r="C356" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2</v>
+      </c>
+      <c r="C357" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2</v>
+      </c>
+      <c r="C358" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2</v>
+      </c>
+      <c r="C359" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2</v>
+      </c>
+      <c r="C360" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2</v>
+      </c>
+      <c r="C361" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2</v>
+      </c>
+      <c r="C362" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2</v>
+      </c>
+      <c r="C363" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2</v>
+      </c>
+      <c r="C364" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2</v>
+      </c>
+      <c r="C365" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2</v>
+      </c>
+      <c r="C366" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2</v>
+      </c>
+      <c r="C367" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2</v>
+      </c>
+      <c r="C368" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2</v>
+      </c>
+      <c r="C369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2</v>
+      </c>
+      <c r="C370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2</v>
+      </c>
+      <c r="C371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2</v>
+      </c>
+      <c r="C372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2</v>
+      </c>
+      <c r="C373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2</v>
+      </c>
+      <c r="C374" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2</v>
+      </c>
+      <c r="C375" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2</v>
+      </c>
+      <c r="C376" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2</v>
+      </c>
+      <c r="C377" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2</v>
+      </c>
+      <c r="C378" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2</v>
+      </c>
+      <c r="C379" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2</v>
+      </c>
+      <c r="C380" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2</v>
+      </c>
+      <c r="C381" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2</v>
+      </c>
+      <c r="C382" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2</v>
+      </c>
+      <c r="C383" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2</v>
+      </c>
+      <c r="C384" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>2</v>
+      </c>
+      <c r="C385" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2</v>
+      </c>
+      <c r="C386" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2</v>
+      </c>
+      <c r="C387" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>2</v>
+      </c>
+      <c r="C388" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2</v>
+      </c>
+      <c r="C389" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2</v>
+      </c>
+      <c r="C390" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2</v>
+      </c>
+      <c r="C391" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2</v>
+      </c>
+      <c r="C392" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2</v>
+      </c>
+      <c r="C393" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2</v>
+      </c>
+      <c r="C394" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2</v>
+      </c>
+      <c r="C395" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2</v>
+      </c>
+      <c r="C396" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2</v>
+      </c>
+      <c r="C397" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2</v>
+      </c>
+      <c r="C398" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2</v>
+      </c>
+      <c r="C399" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>2</v>
+      </c>
+      <c r="C400" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2</v>
+      </c>
+      <c r="C401" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2</v>
+      </c>
+      <c r="C402" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2</v>
+      </c>
+      <c r="C403" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2</v>
+      </c>
+      <c r="C404" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2</v>
+      </c>
+      <c r="C405" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2</v>
+      </c>
+      <c r="C406" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2</v>
+      </c>
+      <c r="C407" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2</v>
+      </c>
+      <c r="C408" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2</v>
+      </c>
+      <c r="C409" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2</v>
+      </c>
+      <c r="C410" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2</v>
+      </c>
+      <c r="C411" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2</v>
+      </c>
+      <c r="C412" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2</v>
+      </c>
+      <c r="C413" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2</v>
+      </c>
+      <c r="C414" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2</v>
+      </c>
+      <c r="C415" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2</v>
+      </c>
+      <c r="C416" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2</v>
+      </c>
+      <c r="C417" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2</v>
+      </c>
+      <c r="C418" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2</v>
+      </c>
+      <c r="C419" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2</v>
+      </c>
+      <c r="C420" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2</v>
+      </c>
+      <c r="C421" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2</v>
+      </c>
+      <c r="C422" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>2</v>
+      </c>
+      <c r="C423" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2</v>
+      </c>
+      <c r="C424" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2</v>
+      </c>
+      <c r="C425" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2</v>
+      </c>
+      <c r="C426" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2</v>
+      </c>
+      <c r="C427" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2</v>
+      </c>
+      <c r="C428" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>2</v>
+      </c>
+      <c r="C429" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2</v>
+      </c>
+      <c r="C430" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>2</v>
+      </c>
+      <c r="C431" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>2</v>
+      </c>
+      <c r="C432" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>2</v>
+      </c>
+      <c r="C433" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>2</v>
+      </c>
+      <c r="C434" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2</v>
+      </c>
+      <c r="C435" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>2</v>
+      </c>
+      <c r="C436" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>2</v>
+      </c>
+      <c r="C437" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2</v>
+      </c>
+      <c r="C438" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2</v>
+      </c>
+      <c r="C439" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2</v>
+      </c>
+      <c r="C440" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2</v>
+      </c>
+      <c r="C441" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2</v>
+      </c>
+      <c r="C442" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>2</v>
+      </c>
+      <c r="C443" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>2</v>
+      </c>
+      <c r="C444" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2</v>
+      </c>
+      <c r="C445" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>2</v>
+      </c>
+      <c r="C446" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2</v>
+      </c>
+      <c r="C447" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2</v>
+      </c>
+      <c r="C448" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2</v>
+      </c>
+      <c r="C449" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>2</v>
+      </c>
+      <c r="C450" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>2</v>
+      </c>
+      <c r="C451" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>2</v>
+      </c>
+      <c r="C452" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2</v>
+      </c>
+      <c r="C453" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>2</v>
+      </c>
+      <c r="C454" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>2</v>
+      </c>
+      <c r="C455" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>2</v>
+      </c>
+      <c r="C456" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>3</v>
+      </c>
+      <c r="C457" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>3</v>
+      </c>
+      <c r="C458" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>3</v>
+      </c>
+      <c r="C459" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>3</v>
+      </c>
+      <c r="C460" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>3</v>
+      </c>
+      <c r="C461" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>3</v>
+      </c>
+      <c r="C462" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>3</v>
+      </c>
+      <c r="C463" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>3</v>
+      </c>
+      <c r="C464" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>3</v>
+      </c>
+      <c r="C465" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>3</v>
+      </c>
+      <c r="C466" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>3</v>
+      </c>
+      <c r="C467" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>3</v>
+      </c>
+      <c r="C468" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>3</v>
+      </c>
+      <c r="C469" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>3</v>
+      </c>
+      <c r="C470" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>3</v>
+      </c>
+      <c r="C471" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>3</v>
+      </c>
+      <c r="C472" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>3</v>
+      </c>
+      <c r="C473" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>3</v>
+      </c>
+      <c r="C474" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>3</v>
+      </c>
+      <c r="C475" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>3</v>
+      </c>
+      <c r="C476" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>3</v>
+      </c>
+      <c r="C477" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>3</v>
+      </c>
+      <c r="C478" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>3</v>
+      </c>
+      <c r="C479" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>3</v>
+      </c>
+      <c r="C480" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>3</v>
+      </c>
+      <c r="C481" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>3</v>
+      </c>
+      <c r="C482" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>3</v>
+      </c>
+      <c r="C483" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>3</v>
+      </c>
+      <c r="C484" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>3</v>
+      </c>
+      <c r="C485" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>3</v>
+      </c>
+      <c r="C486" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>3</v>
+      </c>
+      <c r="C487" t="s">
+        <v>471</v>
+      </c>
+      <c r="D487" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>3</v>
+      </c>
+      <c r="C488" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>3</v>
+      </c>
+      <c r="C489" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>3</v>
+      </c>
+      <c r="C490" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>3</v>
+      </c>
+      <c r="C491" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>3</v>
+      </c>
+      <c r="C492" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>3</v>
+      </c>
+      <c r="C493" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>3</v>
+      </c>
+      <c r="C494" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>3</v>
+      </c>
+      <c r="C495" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>3</v>
+      </c>
+      <c r="C496" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>3</v>
+      </c>
+      <c r="C497" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>3</v>
+      </c>
+      <c r="C498" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>3</v>
+      </c>
+      <c r="C499" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>3</v>
+      </c>
+      <c r="C500" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>3</v>
+      </c>
+      <c r="C501" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>3</v>
+      </c>
+      <c r="C502" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>3</v>
+      </c>
+      <c r="C503" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>3</v>
+      </c>
+      <c r="C504" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>3</v>
+      </c>
+      <c r="C505" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>3</v>
+      </c>
+      <c r="C506" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>3</v>
+      </c>
+      <c r="C507" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>3</v>
+      </c>
+      <c r="C508" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>3</v>
+      </c>
+      <c r="C509" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>3</v>
+      </c>
+      <c r="C510" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>3</v>
+      </c>
+      <c r="C511" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>3</v>
+      </c>
+      <c r="C512" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>3</v>
+      </c>
+      <c r="C513" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>3</v>
+      </c>
+      <c r="C514" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>3</v>
+      </c>
+      <c r="C515" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>3</v>
+      </c>
+      <c r="C516" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>3</v>
+      </c>
+      <c r="C517" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>3</v>
+      </c>
+      <c r="C518" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>3</v>
+      </c>
+      <c r="C519" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>3</v>
+      </c>
+      <c r="C520" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>3</v>
+      </c>
+      <c r="C521" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>3</v>
+      </c>
+      <c r="C522" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>3</v>
+      </c>
+      <c r="C523" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>3</v>
+      </c>
+      <c r="C524" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>3</v>
+      </c>
+      <c r="C525" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>3</v>
+      </c>
+      <c r="C526" t="s">
+        <v>506</v>
+      </c>
+      <c r="D526" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>3</v>
+      </c>
+      <c r="C527" t="s">
+        <v>507</v>
+      </c>
+      <c r="D527" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>3</v>
+      </c>
+      <c r="C528" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>3</v>
+      </c>
+      <c r="C529" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>3</v>
+      </c>
+      <c r="C530" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>3</v>
+      </c>
+      <c r="C531" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>3</v>
+      </c>
+      <c r="C532" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>3</v>
+      </c>
+      <c r="C533" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>3</v>
+      </c>
+      <c r="C534" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>3</v>
+      </c>
+      <c r="C535" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>3</v>
+      </c>
+      <c r="C536" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>3</v>
+      </c>
+      <c r="C537" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>3</v>
+      </c>
+      <c r="C538" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>3</v>
+      </c>
+      <c r="C539" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>3</v>
+      </c>
+      <c r="C540" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>3</v>
+      </c>
+      <c r="C541" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>3</v>
+      </c>
+      <c r="C542" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>3</v>
+      </c>
+      <c r="C543" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>3</v>
+      </c>
+      <c r="C544" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>3</v>
+      </c>
+      <c r="C545" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>3</v>
+      </c>
+      <c r="C546" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>3</v>
+      </c>
+      <c r="C547" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>3</v>
+      </c>
+      <c r="C548" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>3</v>
+      </c>
+      <c r="C549" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>3</v>
+      </c>
+      <c r="C550" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>3</v>
+      </c>
+      <c r="C551" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>3</v>
+      </c>
+      <c r="C552" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>3</v>
+      </c>
+      <c r="C553" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>3</v>
+      </c>
+      <c r="C554" t="s">
+        <v>171</v>
+      </c>
+      <c r="D554" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>3</v>
+      </c>
+      <c r="C555" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>3</v>
+      </c>
+      <c r="C556" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>3</v>
+      </c>
+      <c r="C557" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>3</v>
+      </c>
+      <c r="C558" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>3</v>
+      </c>
+      <c r="C559" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>3</v>
+      </c>
+      <c r="C560" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>3</v>
+      </c>
+      <c r="C561" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>3</v>
+      </c>
+      <c r="C562" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>3</v>
+      </c>
+      <c r="C563" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>3</v>
+      </c>
+      <c r="C564" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>3</v>
+      </c>
+      <c r="C565" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>3</v>
+      </c>
+      <c r="C566" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>3</v>
+      </c>
+      <c r="C567" t="s">
+        <v>168</v>
+      </c>
+      <c r="D567" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>3</v>
+      </c>
+      <c r="C568" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>3</v>
+      </c>
+      <c r="C569" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>3</v>
+      </c>
+      <c r="C570" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>3</v>
+      </c>
+      <c r="C571" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>3</v>
+      </c>
+      <c r="C572" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>3</v>
+      </c>
+      <c r="C573" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>3</v>
+      </c>
+      <c r="C574" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>3</v>
+      </c>
+      <c r="C575" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>3</v>
+      </c>
+      <c r="C576" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>3</v>
+      </c>
+      <c r="C577" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>3</v>
+      </c>
+      <c r="C578" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>3</v>
+      </c>
+      <c r="C579" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>3</v>
+      </c>
+      <c r="C580" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>3</v>
+      </c>
+      <c r="C581" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>3</v>
+      </c>
+      <c r="C582" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>3</v>
+      </c>
+      <c r="C583" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>3</v>
+      </c>
+      <c r="C584" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>3</v>
+      </c>
+      <c r="C585" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>3</v>
+      </c>
+      <c r="C586" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>3</v>
+      </c>
+      <c r="C587" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>3</v>
+      </c>
+      <c r="C588" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>3</v>
+      </c>
+      <c r="C589" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>3</v>
+      </c>
+      <c r="C590" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>3</v>
+      </c>
+      <c r="C591" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>3</v>
+      </c>
+      <c r="C592" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>3</v>
+      </c>
+      <c r="C593" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>3</v>
+      </c>
+      <c r="C594" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>3</v>
+      </c>
+      <c r="C595" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>3</v>
+      </c>
+      <c r="C596" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>3</v>
+      </c>
+      <c r="C597" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>3</v>
+      </c>
+      <c r="C598" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>3</v>
+      </c>
+      <c r="C599" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>3</v>
+      </c>
+      <c r="C600" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>3</v>
+      </c>
+      <c r="C601" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>4</v>
+      </c>
+      <c r="C602" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>4</v>
+      </c>
+      <c r="C603" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>4</v>
+      </c>
+      <c r="C604" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>4</v>
+      </c>
+      <c r="C605" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>4</v>
+      </c>
+      <c r="C606" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>4</v>
+      </c>
+      <c r="C607" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>4</v>
+      </c>
+      <c r="C608" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>4</v>
+      </c>
+      <c r="C609" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>4</v>
+      </c>
+      <c r="C610" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>4</v>
+      </c>
+      <c r="C611" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>4</v>
+      </c>
+      <c r="C612" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>4</v>
+      </c>
+      <c r="C613" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>4</v>
+      </c>
+      <c r="C614" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>4</v>
+      </c>
+      <c r="C615" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>4</v>
+      </c>
+      <c r="C616" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>4</v>
+      </c>
+      <c r="C617" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>4</v>
+      </c>
+      <c r="C618" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>4</v>
+      </c>
+      <c r="C619" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>4</v>
+      </c>
+      <c r="C620" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>4</v>
+      </c>
+      <c r="C621" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>4</v>
+      </c>
+      <c r="C622" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>4</v>
+      </c>
+      <c r="C623" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>4</v>
+      </c>
+      <c r="C624" t="s">
+        <v>586</v>
+      </c>
+      <c r="D624" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>4</v>
+      </c>
+      <c r="C625" t="s">
+        <v>587</v>
+      </c>
+      <c r="D625" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>4</v>
+      </c>
+      <c r="C626" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>4</v>
+      </c>
+      <c r="C627" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>4</v>
+      </c>
+      <c r="C628" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>4</v>
+      </c>
+      <c r="C629" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>4</v>
+      </c>
+      <c r="C630" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>4</v>
+      </c>
+      <c r="C631" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>4</v>
+      </c>
+      <c r="C632" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>4</v>
+      </c>
+      <c r="C633" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>4</v>
+      </c>
+      <c r="C634" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>4</v>
+      </c>
+      <c r="C635" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>4</v>
+      </c>
+      <c r="C636" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>4</v>
+      </c>
+      <c r="C637" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>4</v>
+      </c>
+      <c r="C638" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>4</v>
+      </c>
+      <c r="C639" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>4</v>
+      </c>
+      <c r="C640" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>4</v>
+      </c>
+      <c r="C641" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>4</v>
+      </c>
+      <c r="C642" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>4</v>
+      </c>
+      <c r="C643" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>4</v>
+      </c>
+      <c r="C644" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>4</v>
+      </c>
+      <c r="C645" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>4</v>
+      </c>
+      <c r="C646" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>4</v>
+      </c>
+      <c r="C647" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>4</v>
+      </c>
+      <c r="C648" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>4</v>
+      </c>
+      <c r="C649" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>4</v>
+      </c>
+      <c r="C650" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>4</v>
+      </c>
+      <c r="C651" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>4</v>
+      </c>
+      <c r="C652" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>4</v>
+      </c>
+      <c r="C653" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>4</v>
+      </c>
+      <c r="C654" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>4</v>
+      </c>
+      <c r="C655" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>4</v>
+      </c>
+      <c r="C656" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>4</v>
+      </c>
+      <c r="C657" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>4</v>
+      </c>
+      <c r="C658" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>4</v>
+      </c>
+      <c r="C659" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>4</v>
+      </c>
+      <c r="C660" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>4</v>
+      </c>
+      <c r="C661" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>4</v>
+      </c>
+      <c r="C662" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>4</v>
+      </c>
+      <c r="C663" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>4</v>
+      </c>
+      <c r="C664" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>4</v>
+      </c>
+      <c r="C665" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>4</v>
+      </c>
+      <c r="C666" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>4</v>
+      </c>
+      <c r="C667" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>4</v>
+      </c>
+      <c r="C668" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>4</v>
+      </c>
+      <c r="C669" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>4</v>
+      </c>
+      <c r="C670" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>4</v>
+      </c>
+      <c r="C671" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>4</v>
+      </c>
+      <c r="C672" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>4</v>
+      </c>
+      <c r="C673" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>4</v>
+      </c>
+      <c r="C674" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>4</v>
+      </c>
+      <c r="C675" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>4</v>
+      </c>
+      <c r="C676" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>4</v>
+      </c>
+      <c r="C677" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>4</v>
+      </c>
+      <c r="C678" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>4</v>
+      </c>
+      <c r="C679" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>4</v>
+      </c>
+      <c r="C680" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>4</v>
+      </c>
+      <c r="C681" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>4</v>
+      </c>
+      <c r="C682" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>4</v>
+      </c>
+      <c r="C683" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>4</v>
+      </c>
+      <c r="C684" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>4</v>
+      </c>
+      <c r="C685" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>4</v>
+      </c>
+      <c r="C686" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>4</v>
+      </c>
+      <c r="C687" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>4</v>
+      </c>
+      <c r="C688" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>4</v>
+      </c>
+      <c r="C689" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>4</v>
+      </c>
+      <c r="C690" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>4</v>
+      </c>
+      <c r="C691" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>4</v>
+      </c>
+      <c r="C692" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>4</v>
+      </c>
+      <c r="C693" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>4</v>
+      </c>
+      <c r="C694" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>4</v>
+      </c>
+      <c r="C695" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>4</v>
+      </c>
+      <c r="C696" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>4</v>
+      </c>
+      <c r="C697" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>4</v>
+      </c>
+      <c r="C698" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>4</v>
+      </c>
+      <c r="C699" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>4</v>
+      </c>
+      <c r="C700" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>4</v>
+      </c>
+      <c r="C701" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>4</v>
+      </c>
+      <c r="C702" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>4</v>
+      </c>
+      <c r="C703" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>4</v>
+      </c>
+      <c r="C704" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>4</v>
+      </c>
+      <c r="C705" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>4</v>
+      </c>
+      <c r="C706" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>4</v>
+      </c>
+      <c r="C707" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>4</v>
+      </c>
+      <c r="C708" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>4</v>
+      </c>
+      <c r="C709" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>4</v>
+      </c>
+      <c r="C710" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>4</v>
+      </c>
+      <c r="C711" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>4</v>
+      </c>
+      <c r="C712" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>131</v>
-      </c>
-      <c r="D107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
-        <v>51</v>
-      </c>
-      <c r="D148" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
-        <v>173</v>
-      </c>
-      <c r="D151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C272" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" t="s">
-        <v>296</v>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>4</v>
+      </c>
+      <c r="C713" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>4</v>
+      </c>
+      <c r="C714" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>4</v>
+      </c>
+      <c r="C715" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C716" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C717" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/data/media/prime3/english/Words.xlsx
+++ b/data/media/prime3/english/Words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="877">
   <si>
     <t>Word</t>
   </si>
@@ -2032,10 +2032,619 @@
     <t>division</t>
   </si>
   <si>
-    <t>______</t>
-  </si>
-  <si>
-    <t>Start with Unit 5 page 88</t>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>so many</t>
+  </si>
+  <si>
+    <t>There are so many animals here</t>
+  </si>
+  <si>
+    <t>I love the zoo</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>What do you want to see?</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>elephants</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>good idea</t>
+  </si>
+  <si>
+    <t>How about going to the zoo?</t>
+  </si>
+  <si>
+    <t>hippo</t>
+  </si>
+  <si>
+    <t>panda</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>What is your favorite zoo animal?</t>
+  </si>
+  <si>
+    <t>hippos</t>
+  </si>
+  <si>
+    <t>Where are the lions?</t>
+  </si>
+  <si>
+    <t>turn left</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>bamboo forest</t>
+  </si>
+  <si>
+    <t>Where does an elephant live?</t>
+  </si>
+  <si>
+    <t>grasslands</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>It lives in grasslands</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>The animal is very strong</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>The animal has a long neck</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>part of</t>
+  </si>
+  <si>
+    <t>the whole</t>
+  </si>
+  <si>
+    <t>الكل</t>
+  </si>
+  <si>
+    <t>one-fourth</t>
+  </si>
+  <si>
+    <t>one-eighth</t>
+  </si>
+  <si>
+    <t>ثمن ⅛</t>
+  </si>
+  <si>
+    <t>ربع ¼</t>
+  </si>
+  <si>
+    <t>نصف ½</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>fifth</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>خمس ⅕</t>
+  </si>
+  <si>
+    <t>ثلث ⅓</t>
+  </si>
+  <si>
+    <t>the best</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>classmates</t>
+  </si>
+  <si>
+    <t>fractions</t>
+  </si>
+  <si>
+    <t>planting</t>
+  </si>
+  <si>
+    <t>recycling</t>
+  </si>
+  <si>
+    <t>sorting trash</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>polluting the river</t>
+  </si>
+  <si>
+    <t>polluting</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>riding</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>riding a bike</t>
+  </si>
+  <si>
+    <t>reusing</t>
+  </si>
+  <si>
+    <t>going by car</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>reuse</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>pollute</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>balcony</t>
+  </si>
+  <si>
+    <t>don't put</t>
+  </si>
+  <si>
+    <t>plant flowers</t>
+  </si>
+  <si>
+    <t>flowers</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>lion eats meat</t>
+  </si>
+  <si>
+    <t>animals template</t>
+  </si>
+  <si>
+    <t>black marker pen</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>circus</t>
+  </si>
+  <si>
+    <t>tent</t>
+  </si>
+  <si>
+    <t>clown</t>
+  </si>
+  <si>
+    <t>ringmaster</t>
+  </si>
+  <si>
+    <t>acrobat</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>dog trainer</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>trapeze artist</t>
+  </si>
+  <si>
+    <t>juggler</t>
+  </si>
+  <si>
+    <t>my friend</t>
+  </si>
+  <si>
+    <t>look like</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>sides</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>rhombus</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>corners</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>درجات</t>
+  </si>
+  <si>
+    <t>quadrilaterals</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>do you like the circus</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>rings</t>
+  </si>
+  <si>
+    <t>balls</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>pound</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>drops</t>
+  </si>
+  <si>
+    <t>pound coin</t>
+  </si>
+  <si>
+    <t>decide</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>do the experiment again</t>
+  </si>
+  <si>
+    <t>check your answer</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>number of drops</t>
+  </si>
+  <si>
+    <t>measuring length</t>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>I guess the book is 19 cm wide</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>shapes</t>
+  </si>
+  <si>
+    <t>piece of</t>
+  </si>
+  <si>
+    <t>a big piece of white paper</t>
+  </si>
+  <si>
+    <t>He's walking on a rope</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>sitting on</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>ears</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>per day</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>adventures</t>
+  </si>
+  <si>
+    <t>american sign language</t>
+  </si>
+  <si>
+    <t>He is using  american sign language to talk</t>
+  </si>
+  <si>
+    <t>lip-reading</t>
+  </si>
+  <si>
+    <t>she can't hear</t>
+  </si>
+  <si>
+    <t>she is lip-reading</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>my brother studies at university</t>
+  </si>
+  <si>
+    <t>hearing aid</t>
+  </si>
+  <si>
+    <t>hearing aid helps the child to hear</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
+    <t>his parents are very proud</t>
+  </si>
+  <si>
+    <t>she can answer all the questions</t>
+  </si>
+  <si>
+    <t>she is clever</t>
+  </si>
+  <si>
+    <t>clever</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>she wants to be a teacher</t>
+  </si>
+  <si>
+    <t>she loves teaching</t>
+  </si>
+  <si>
+    <t>he can't hear well</t>
+  </si>
+  <si>
+    <t>she wears a hearing aid</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>read lips</t>
+  </si>
+  <si>
+    <t>lips</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>playing games</t>
+  </si>
+  <si>
+    <t>I want to be a teacher</t>
+  </si>
+  <si>
+    <t>work hard</t>
+  </si>
+  <si>
+    <t>deaf</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>she is very happy</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>help people learn</t>
+  </si>
+  <si>
+    <t>he can't hear at all</t>
   </si>
 </sst>
 </file>
@@ -2385,10 +2994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F717"/>
+  <dimension ref="A1:F972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0">
-      <selection activeCell="C718" sqref="C718"/>
+    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
+      <selection activeCell="A921" sqref="A921:A972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8248,13 +8857,2083 @@
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>5</v>
+      </c>
       <c r="C716" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>5</v>
+      </c>
       <c r="C717" t="s">
         <v>673</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>5</v>
+      </c>
+      <c r="C718" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>5</v>
+      </c>
+      <c r="C719" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>5</v>
+      </c>
+      <c r="C720" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>5</v>
+      </c>
+      <c r="C721" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>5</v>
+      </c>
+      <c r="C722" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>5</v>
+      </c>
+      <c r="C723" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>5</v>
+      </c>
+      <c r="C724" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>5</v>
+      </c>
+      <c r="C725" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>5</v>
+      </c>
+      <c r="C726" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>5</v>
+      </c>
+      <c r="C727" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>5</v>
+      </c>
+      <c r="C728" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>5</v>
+      </c>
+      <c r="C729" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>5</v>
+      </c>
+      <c r="C730" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>5</v>
+      </c>
+      <c r="C731" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>5</v>
+      </c>
+      <c r="C732" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>5</v>
+      </c>
+      <c r="C733" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>5</v>
+      </c>
+      <c r="C734" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>5</v>
+      </c>
+      <c r="C735" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>5</v>
+      </c>
+      <c r="C736" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>5</v>
+      </c>
+      <c r="C737" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>5</v>
+      </c>
+      <c r="C738" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>5</v>
+      </c>
+      <c r="C739" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>5</v>
+      </c>
+      <c r="C740" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>5</v>
+      </c>
+      <c r="C741" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>5</v>
+      </c>
+      <c r="C742" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>5</v>
+      </c>
+      <c r="C743" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>5</v>
+      </c>
+      <c r="C744" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>5</v>
+      </c>
+      <c r="C745" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>5</v>
+      </c>
+      <c r="C746" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>5</v>
+      </c>
+      <c r="C747" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>5</v>
+      </c>
+      <c r="C748" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>5</v>
+      </c>
+      <c r="C749" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>5</v>
+      </c>
+      <c r="C750" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>5</v>
+      </c>
+      <c r="C751" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>5</v>
+      </c>
+      <c r="C752" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>5</v>
+      </c>
+      <c r="C753" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>5</v>
+      </c>
+      <c r="C754" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>5</v>
+      </c>
+      <c r="C755" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>5</v>
+      </c>
+      <c r="C756" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>5</v>
+      </c>
+      <c r="C757" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>5</v>
+      </c>
+      <c r="C758" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>5</v>
+      </c>
+      <c r="C759" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>5</v>
+      </c>
+      <c r="C760" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>5</v>
+      </c>
+      <c r="C761" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>5</v>
+      </c>
+      <c r="C762" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>5</v>
+      </c>
+      <c r="C763" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>5</v>
+      </c>
+      <c r="C764" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>5</v>
+      </c>
+      <c r="C765" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>5</v>
+      </c>
+      <c r="C766" t="s">
+        <v>486</v>
+      </c>
+      <c r="D766" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>5</v>
+      </c>
+      <c r="C767" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>5</v>
+      </c>
+      <c r="C768" t="s">
+        <v>713</v>
+      </c>
+      <c r="D768" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>5</v>
+      </c>
+      <c r="C769" t="s">
+        <v>715</v>
+      </c>
+      <c r="D769" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>5</v>
+      </c>
+      <c r="C770" t="s">
+        <v>716</v>
+      </c>
+      <c r="D770" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>5</v>
+      </c>
+      <c r="C771" t="s">
+        <v>720</v>
+      </c>
+      <c r="D771" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>5</v>
+      </c>
+      <c r="C772" t="s">
+        <v>721</v>
+      </c>
+      <c r="D772" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>5</v>
+      </c>
+      <c r="C773" t="s">
+        <v>722</v>
+      </c>
+      <c r="D773" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>5</v>
+      </c>
+      <c r="C774" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>5</v>
+      </c>
+      <c r="C775" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>5</v>
+      </c>
+      <c r="C776" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>5</v>
+      </c>
+      <c r="C777" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>5</v>
+      </c>
+      <c r="C778" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>5</v>
+      </c>
+      <c r="C779" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>5</v>
+      </c>
+      <c r="C780" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>5</v>
+      </c>
+      <c r="C781" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>5</v>
+      </c>
+      <c r="C782" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>5</v>
+      </c>
+      <c r="C783" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>5</v>
+      </c>
+      <c r="C784" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>5</v>
+      </c>
+      <c r="C785" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>5</v>
+      </c>
+      <c r="C786" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>5</v>
+      </c>
+      <c r="C787" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>5</v>
+      </c>
+      <c r="C788" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>5</v>
+      </c>
+      <c r="C789" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>5</v>
+      </c>
+      <c r="C790" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>5</v>
+      </c>
+      <c r="C791" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>5</v>
+      </c>
+      <c r="C792" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>5</v>
+      </c>
+      <c r="C793" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>5</v>
+      </c>
+      <c r="C794" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>5</v>
+      </c>
+      <c r="C795" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>5</v>
+      </c>
+      <c r="C796" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>5</v>
+      </c>
+      <c r="C797" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>5</v>
+      </c>
+      <c r="C798" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>5</v>
+      </c>
+      <c r="C799" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>5</v>
+      </c>
+      <c r="C800" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>5</v>
+      </c>
+      <c r="C801" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>5</v>
+      </c>
+      <c r="C802" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>5</v>
+      </c>
+      <c r="C803" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>5</v>
+      </c>
+      <c r="C804" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>5</v>
+      </c>
+      <c r="C805" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>5</v>
+      </c>
+      <c r="C806" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>5</v>
+      </c>
+      <c r="C807" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>5</v>
+      </c>
+      <c r="C808" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>5</v>
+      </c>
+      <c r="C809" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>5</v>
+      </c>
+      <c r="C810" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>5</v>
+      </c>
+      <c r="C811" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>5</v>
+      </c>
+      <c r="C812" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>5</v>
+      </c>
+      <c r="C813" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>5</v>
+      </c>
+      <c r="C814" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>5</v>
+      </c>
+      <c r="C815" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>5</v>
+      </c>
+      <c r="C816" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>5</v>
+      </c>
+      <c r="C817" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>5</v>
+      </c>
+      <c r="C818" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>5</v>
+      </c>
+      <c r="C819" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>5</v>
+      </c>
+      <c r="C820" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>5</v>
+      </c>
+      <c r="C821" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>5</v>
+      </c>
+      <c r="C822" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>5</v>
+      </c>
+      <c r="C823" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>5</v>
+      </c>
+      <c r="C824" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>5</v>
+      </c>
+      <c r="C825" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>5</v>
+      </c>
+      <c r="C826" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>5</v>
+      </c>
+      <c r="C827" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>5</v>
+      </c>
+      <c r="C828" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>5</v>
+      </c>
+      <c r="C829" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>5</v>
+      </c>
+      <c r="C830" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>5</v>
+      </c>
+      <c r="C831" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>5</v>
+      </c>
+      <c r="C832" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>6</v>
+      </c>
+      <c r="C833" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>6</v>
+      </c>
+      <c r="C834" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>6</v>
+      </c>
+      <c r="C835" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>6</v>
+      </c>
+      <c r="C836" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>6</v>
+      </c>
+      <c r="C837" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>6</v>
+      </c>
+      <c r="C838" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>6</v>
+      </c>
+      <c r="C839" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>6</v>
+      </c>
+      <c r="C840" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>6</v>
+      </c>
+      <c r="C841" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>6</v>
+      </c>
+      <c r="C842" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>6</v>
+      </c>
+      <c r="C843" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>6</v>
+      </c>
+      <c r="C844" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>6</v>
+      </c>
+      <c r="C845" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>6</v>
+      </c>
+      <c r="C846" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>6</v>
+      </c>
+      <c r="C847" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>6</v>
+      </c>
+      <c r="C848" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>6</v>
+      </c>
+      <c r="C849" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>6</v>
+      </c>
+      <c r="C850" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>6</v>
+      </c>
+      <c r="C851" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>6</v>
+      </c>
+      <c r="C852" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>6</v>
+      </c>
+      <c r="C853" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>6</v>
+      </c>
+      <c r="C854" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>6</v>
+      </c>
+      <c r="C855" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>6</v>
+      </c>
+      <c r="C856" t="s">
+        <v>791</v>
+      </c>
+      <c r="D856" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>6</v>
+      </c>
+      <c r="C857" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>6</v>
+      </c>
+      <c r="C858" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>6</v>
+      </c>
+      <c r="C859" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>6</v>
+      </c>
+      <c r="C860" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>6</v>
+      </c>
+      <c r="C861" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>6</v>
+      </c>
+      <c r="C862" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>6</v>
+      </c>
+      <c r="C863" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>6</v>
+      </c>
+      <c r="C864" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>6</v>
+      </c>
+      <c r="C865" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>6</v>
+      </c>
+      <c r="C866" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>6</v>
+      </c>
+      <c r="C867" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>6</v>
+      </c>
+      <c r="C868" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>6</v>
+      </c>
+      <c r="C869" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>6</v>
+      </c>
+      <c r="C870" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>6</v>
+      </c>
+      <c r="C871" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>6</v>
+      </c>
+      <c r="C872" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>6</v>
+      </c>
+      <c r="C873" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>6</v>
+      </c>
+      <c r="C874" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>6</v>
+      </c>
+      <c r="C875" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>6</v>
+      </c>
+      <c r="C876" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>6</v>
+      </c>
+      <c r="C877" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>6</v>
+      </c>
+      <c r="C878" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>6</v>
+      </c>
+      <c r="C879" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>6</v>
+      </c>
+      <c r="C880" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>6</v>
+      </c>
+      <c r="C881" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>6</v>
+      </c>
+      <c r="C882" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>6</v>
+      </c>
+      <c r="C883" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>6</v>
+      </c>
+      <c r="C884" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>6</v>
+      </c>
+      <c r="C885" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>6</v>
+      </c>
+      <c r="C886" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>6</v>
+      </c>
+      <c r="C887" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>6</v>
+      </c>
+      <c r="C888" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>6</v>
+      </c>
+      <c r="C889" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>6</v>
+      </c>
+      <c r="C890" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>6</v>
+      </c>
+      <c r="C891" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>6</v>
+      </c>
+      <c r="C892" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>6</v>
+      </c>
+      <c r="C893" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>6</v>
+      </c>
+      <c r="C894" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>6</v>
+      </c>
+      <c r="C895" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>6</v>
+      </c>
+      <c r="C896" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>6</v>
+      </c>
+      <c r="C897" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>6</v>
+      </c>
+      <c r="C898" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>6</v>
+      </c>
+      <c r="C899" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>6</v>
+      </c>
+      <c r="C900" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>6</v>
+      </c>
+      <c r="C901" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>6</v>
+      </c>
+      <c r="C902" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>6</v>
+      </c>
+      <c r="C903" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>6</v>
+      </c>
+      <c r="C904" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>6</v>
+      </c>
+      <c r="C905" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>6</v>
+      </c>
+      <c r="C906" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>6</v>
+      </c>
+      <c r="C907" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>6</v>
+      </c>
+      <c r="C908" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>6</v>
+      </c>
+      <c r="C909" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>6</v>
+      </c>
+      <c r="C910" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>6</v>
+      </c>
+      <c r="C911" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>6</v>
+      </c>
+      <c r="C912" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>6</v>
+      </c>
+      <c r="C913" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>6</v>
+      </c>
+      <c r="C914" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>6</v>
+      </c>
+      <c r="C915" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>6</v>
+      </c>
+      <c r="C916" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>6</v>
+      </c>
+      <c r="C917" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>6</v>
+      </c>
+      <c r="C918" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>6</v>
+      </c>
+      <c r="C919" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>6</v>
+      </c>
+      <c r="C920" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>7</v>
+      </c>
+      <c r="C921" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>7</v>
+      </c>
+      <c r="C922" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>7</v>
+      </c>
+      <c r="C923" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>7</v>
+      </c>
+      <c r="C924" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>7</v>
+      </c>
+      <c r="C925" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>7</v>
+      </c>
+      <c r="C926" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>7</v>
+      </c>
+      <c r="C927" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>7</v>
+      </c>
+      <c r="C928" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>7</v>
+      </c>
+      <c r="C929" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>7</v>
+      </c>
+      <c r="C930" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>7</v>
+      </c>
+      <c r="C931" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>7</v>
+      </c>
+      <c r="C932" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>7</v>
+      </c>
+      <c r="C933" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>7</v>
+      </c>
+      <c r="C934" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>7</v>
+      </c>
+      <c r="C935" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>7</v>
+      </c>
+      <c r="C936" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>7</v>
+      </c>
+      <c r="C937" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>7</v>
+      </c>
+      <c r="C938" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>7</v>
+      </c>
+      <c r="C939" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>7</v>
+      </c>
+      <c r="C940" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>7</v>
+      </c>
+      <c r="C941" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>7</v>
+      </c>
+      <c r="C942" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>7</v>
+      </c>
+      <c r="C943" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>7</v>
+      </c>
+      <c r="C944" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>7</v>
+      </c>
+      <c r="C945" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>7</v>
+      </c>
+      <c r="C946" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>7</v>
+      </c>
+      <c r="C947" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>7</v>
+      </c>
+      <c r="C948" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>7</v>
+      </c>
+      <c r="C949" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>7</v>
+      </c>
+      <c r="C950" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>7</v>
+      </c>
+      <c r="C951" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>7</v>
+      </c>
+      <c r="C952" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>7</v>
+      </c>
+      <c r="C953" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>7</v>
+      </c>
+      <c r="C954" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>7</v>
+      </c>
+      <c r="C955" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>7</v>
+      </c>
+      <c r="C956" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>7</v>
+      </c>
+      <c r="C957" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>7</v>
+      </c>
+      <c r="C958" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>7</v>
+      </c>
+      <c r="C959" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>7</v>
+      </c>
+      <c r="C960" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>7</v>
+      </c>
+      <c r="C961" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>7</v>
+      </c>
+      <c r="C962" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>7</v>
+      </c>
+      <c r="C963" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>7</v>
+      </c>
+      <c r="C964" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>7</v>
+      </c>
+      <c r="C965" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>7</v>
+      </c>
+      <c r="C966" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>7</v>
+      </c>
+      <c r="C967" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>7</v>
+      </c>
+      <c r="C968" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>7</v>
+      </c>
+      <c r="C969" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>7</v>
+      </c>
+      <c r="C970" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>7</v>
+      </c>
+      <c r="C971" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>7</v>
+      </c>
+      <c r="C972" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/media/prime3/english/Words.xlsx
+++ b/data/media/prime3/english/Words.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8616" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8616" uniqueCount="1684">
   <si>
     <t>Word</t>
   </si>
@@ -5064,6 +5064,9 @@
   </si>
   <si>
     <t>),</t>
+  </si>
+  <si>
+    <t>يبتسم / ابتسامة</t>
   </si>
 </sst>
 </file>
@@ -5423,8 +5426,8 @@
   <dimension ref="A1:F957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D397" sqref="D397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12155,7 +12158,7 @@
         <v>399</v>
       </c>
       <c r="D396" t="s">
-        <v>1216</v>
+        <v>1683</v>
       </c>
       <c r="E396" t="b">
         <v>0</v>
